--- a/matlab/MFCC_Coding/mfcc2signal_data.xlsx
+++ b/matlab/MFCC_Coding/mfcc2signal_data.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试语音 si2323_8k.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试语音 mbma1.wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,10 @@
   </si>
   <si>
     <t>帧长 32ms(256采样点)，50%重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试语音 si2323_8k.wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,11 +114,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +492,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,34 +748,34 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1049,34 +1049,34 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1105,7 +1105,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1350,34 +1350,34 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
